--- a/RR_Results/dm_results_fullset_shortcal_21-Oct-2024.xlsx
+++ b/RR_Results/dm_results_fullset_shortcal_21-Oct-2024.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="978" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1956" uniqueCount="361">
   <si>
     <t>Row</t>
   </si>
@@ -29341,7 +29341,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
         <v>0.71599414174137199</v>
@@ -29376,7 +29376,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0">
         <v>0.67569485751221525</v>
